--- a/biology/Botanique/Liste_de_florilèges_et_codex_botaniques/Liste_de_florilèges_et_codex_botaniques.xlsx
+++ b/biology/Botanique/Liste_de_florilèges_et_codex_botaniques/Liste_de_florilèges_et_codex_botaniques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de florilèges et codex botaniques recense par ordre chronologique les ouvrages illustrés de botanique publiés depuis l'Antiquité jusqu'à la fin du XIXe siècle.
 L’illustration botanique en tant que genre artistique remonte au XVe siècle, à l’époque des premiers herbiers imprimés et illustrés. Au début du XVIe siècle, la demande d’illustrations se fit plus forte, de la part d’individus riches possédant des jardins botaniques et qui voulaient garder la trace de leurs plantes nouvelles et chères venues notamment de l’empire ottoman et d’Amérique.
-De très nombreux florilèges furent produits du XVIIe siècle au début du XXe siècle. Le terme « florilegium » désigne un traité sur les fleurs, ou des ouvrages portant sur les plantes d’ornement plutôt que sur les plantes médicinales ou utilitaires, traitées dans les herbiers[1]. Il désigne en particulier une collection de peintures de plantes détaillées et précises (des miniatures), réalisées par des illustrateurs botaniques. La fabrication des florilèges exigeait plusieurs opérations (dessin ou peinture à partir de spécimens vivants ou non; lithogravure; impression ; éventuellement, peinture de la lithographie à la main), ce qui les rendait coûteux à produire.
-D'autre part, on appelle codex un document ayant le format des livres modernes, mais constitué de pages distinctes liées entre elles. Bien que techniquement un livre moderne soit un codex, ce terme latin est couramment utilisé pour les livres écrits à la main, fabriqués dans la période allant de l'Antiquité à la fin du Moyen Âge[2].
+De très nombreux florilèges furent produits du XVIIe siècle au début du XXe siècle. Le terme « florilegium » désigne un traité sur les fleurs, ou des ouvrages portant sur les plantes d’ornement plutôt que sur les plantes médicinales ou utilitaires, traitées dans les herbiers. Il désigne en particulier une collection de peintures de plantes détaillées et précises (des miniatures), réalisées par des illustrateurs botaniques. La fabrication des florilèges exigeait plusieurs opérations (dessin ou peinture à partir de spécimens vivants ou non; lithogravure; impression ; éventuellement, peinture de la lithographie à la main), ce qui les rendait coûteux à produire.
+D'autre part, on appelle codex un document ayant le format des livres modernes, mais constitué de pages distinctes liées entre elles. Bien que techniquement un livre moderne soit un codex, ce terme latin est couramment utilisé pour les livres écrits à la main, fabriqués dans la période allant de l'Antiquité à la fin du Moyen Âge.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Av. J.-C.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>vers 2800 av. J.-C. - Ben Cao Jing, Shennong
 Causes des plantes, Théophraste (371—287 av. J.-C.)
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>1–500</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>vers 77 - De Materia Medica Libri Quinque[3], Dioscoride (40–90)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>vers 77 - De Materia Medica Libri Quinque, Dioscoride (40–90)
 Histoire naturelle, Pline l'Ancien (23–79)
 IVe siècle - Herbarius du Pseudo-Apulée</t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>501–600</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>515 - Dioscoride de Vienne (copie de De Materia Medica réalisée pour Anicia Juliana, fille d'Anicius Olybrius)</t>
         </is>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>1001–1400</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fin du XIe siècle – Orléanais, De viribus herbarum, Macer Floridus (non illustré)
 Entre 1150 et 1170 – Salerne, Liber de Simplici Medicina ou Circa instans, attribué à Matthaeus Platearius (non illustré)
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>1401–1500</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Début du XVe siècle – Italie, manuscrit de Voynich (texte codé)
 vers 1430 – Flandre ou Hainaut, premier Livre des simples médecines, traduction française du Tractatus de herbis
@@ -650,7 +672,7 @@
 1475 - Augsbourg, He nach volget das Puch der Natur, Konrad von Megenberg (1309–1374)
 1481/1483 - Italie / Mayence, Herbarium Apuleii Platonici, Sextus Apuleius Barbarus
 1483 - Venise, Histoire naturelle, Pline l'Ancien (23–79)
-1484 - Allemagne, Herbarius latinus, Peter Schöffer (1425–1502)[4]
+1484 - Allemagne, Herbarius latinus, Peter Schöffer (1425–1502)
 1485 - Allemagne, Herbarius zu teutsch, Peter Schöffer (1425–1502)
 1486 - Augsbourg, Gart der Gesundheit, Peter Schöffer (1425–1502)
 1491 - Mayence, Ortus sanitatis de herbis et planti de animalibus, Jacob Meydenbach, Peter Schöffer (1425–1502)</t>
@@ -663,7 +685,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -681,10 +703,12 @@
           <t>1501–1600</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Début du XVIe siècle Paris, Livre des Simples Medicines, Matthaeus Platearius, Robinet Testard
-Début du XVIe siècle Paris, Le Grant Herbier en françoys, anonyme (contient une grande partie du texte de Mattheus Platearius, XIIe siècle)[5].
+Début du XVIe siècle Paris, Le Grant Herbier en françoys, anonyme (contient une grande partie du texte de Mattheus Platearius, XIIe siècle).
 1526 - Angleterre, The Grete Herball
 1530 - Strasbourg, Herbarium Vivae Eicones, Otto Brunfels (1488–1534), Hans Weiditz
 1530 - Strasbourg, Lustgärten und Pflantzungen, Christian Egenolff (1502–1555)
@@ -692,7 +716,7 @@
 1539 - Strasbourg, Kreüter Buch, Jérôme Bock (1498–1554)
 1542 - Bâle, De historia stirpium commentarii insignes, Leonhart Fuchs (1501–1566), Albrecht Meyer, Heinrich Füllmaurer, Veit Rudolf Speckle
 1544 - Venise, Commentarii in Sex Libros Pedacii Dioscoridis, Pierandrea Mattioli (1501–1577)
-1549 - Lyons Plantarum effigies[6], Leonhart Fuchs (1501–1566)
+1549 - Lyons Plantarum effigies, Leonhart Fuchs (1501–1566)
 1551 - Londres 1562 - Cologne, A New Herball, Wherein are Conteyned the Names of Herbes, William Turner (1508–1568)
 1552 - Mexique, Codex Badiano, Juan Badiano (né en 1484), Martín de la Cruz
 1554 - Anvers, Cruydeboeck, Rembert Dodoens (1517–1585)
@@ -711,8 +735,8 @@
 1583 - Anvers, Stirpium Historiae Pemptades Sex, Rembert Dodoens (1517–1585)
 1585 - Rome, Herbario nuovo, Castore Durante (1529-1590)
 1586 - Lyon, Historia generalis plantarum, Jacques d'Aléchamps (1513–1588), Johannes Molindus, Jean Bauhin (1511–1582)
-1592 - Naples, Phytobasanos cui accessit vita Fabi et Lynceorum, Fabio Colonna (1567–1650)[7]
-1593 - Chine, Bencao gangmu (Grand Traité d'herbologie)[8], Li Shizhen (1518–1593)
+1592 - Naples, Phytobasanos cui accessit vita Fabi et Lynceorum, Fabio Colonna (1567–1650)
+1593 - Chine, Bencao gangmu (Grand Traité d'herbologie), Li Shizhen (1518–1593)
 1597 - Londres, The Herball or Generall Historie of Plantes, John Gerard (1545–1611)</t>
         </is>
       </c>
@@ -723,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -741,9 +765,11 @@
           <t>1601–1700</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1601 - Anvers, Rariorum Plantarum Historia[9] Fungorum Historia, Charles de L'Écluse (1526–1609)
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1601 - Anvers, Rariorum Plantarum Historia Fungorum Historia, Charles de L'Écluse (1526–1609)
 1605 - Leyde, Exoticorum Libri Decem, Charles de L'Écluse (1526–1609)
 1608 - Paris, Le Jardin du roy très chrestien Louis XIIII, roy de France et de Navarre, Pierre Vallet (vers 1575 – 1657)
 1611 - Anvers, Curae Posteriores Aethiopicum, Charles de L'Écluse (1526–1609)
@@ -753,9 +779,9 @@
 1613 - Hortus Eystettensis, Basilius Besler (1561–1629)
 1614–1616 - Utrecht, Hortus floridus, Crispijn van de Passe (1564–1637)
 1615 - Hortulus Monheimensis, Wolfgang Philippus Brandt
-1620 - Paris, Livre de Fleurs[10], François L’Anglois (1859–1647)
+1620 - Paris, Livre de Fleurs, François L’Anglois (1859–1647)
 1623 - Bâle, Pinax theatri botanici, Caspar Bauhin (1560–1624)
-1629 - Venise, De plantis exoticis libri duo[11], Prospero Alpini (1553–1617)
+1629 - Venise, De plantis exoticis libri duo, Prospero Alpini (1553–1617)
 1629 - Londres, Paradisi in Sole, John Parkinson (1567–1650)
 1633 - Rome, De Florum Cultura Libri IV, Giovanni Battista Ferrari (1584–1655)
 1633 - Paris, Theatrum florae, Daniel Rabel (1578–1637)
@@ -764,13 +790,13 @@
 1641 - Francfort-sur-le-Main, Florilegium renovatum et auctum: variorum maximeque rariorum germinum, forum ac plantarum, Théodore de Bry (1528–1598), Matthäus Merian (1593–1650)
 1644 - Paris, Recueil des plantes du jardin du Roi, Guy de La Brosse (1586–1641)
 1644 - Amsterdam, Theophrasti Eresii de Historia Plantarum, Johannes Bodaeus van Stapel (1602–1636)
-1646 - Rome, Hesperides sive de Malorum Aureorum Cultura et Usu Libri Quatuor, Giovanni Battista Ferrari (1584–1655), Cassiano dal Pozzo (1588–1657)[4]
-1648 - Lugdun, Historia Naturalis Brasiliae, Willem Piso[4]
+1646 - Rome, Hesperides sive de Malorum Aureorum Cultura et Usu Libri Quatuor, Giovanni Battista Ferrari (1584–1655), Cassiano dal Pozzo (1588–1657)
+1648 - Lugdun, Historia Naturalis Brasiliae, Willem Piso
 1649–1659 - Schleswig-Holstein-Gottorp, Codex Gottorfer, Hans Simon Holtzbecker († 1671)
 1654-1675 Francfort-sur-le-Main Florilège de Nassau-Idstein, Johann Walter (1604-1676)
-1660 - Altdorf[12] Florae Altdorffinae Deliciae Hortenses sive Catalogus Plantarum Horti Medici, Moritz Hoffmann (1622–1698)
+1660 - Altdorf Florae Altdorffinae Deliciae Hortenses sive Catalogus Plantarum Horti Medici, Moritz Hoffmann (1622–1698)
 1669 - Londres, Hortus Regius Blesensis, Robert Morison (1620–1683)
-1670 - Londres, Sylva, or A Discourse of Forest-Trees and the Propagation of Timber[13], John Evelyn (1620–1706)
+1670 - Londres, Sylva, or A Discourse of Forest-Trees and the Propagation of Timber, John Evelyn (1620–1706)
 1672 - Amsterdam, Waare Oeffening der Planten, Abraham Munting (1626–1683)
 1672 - Oxford, Plantarum Umbelliferum, Robert Morison (1620–1683)
 1675 - Copenhague, Acta Medica et Philosophica Hafniensia, Thomas Bartholin (1616–1680)
@@ -784,7 +810,7 @@
 1682 - Londres, The Anatomy of Plants, Nehemiah Grew (1641–1712)
 1685 - Amsterdam, Simon van der Stel's Journal of his expedition in Namaqualand, Simon van der Stel (1639–1712)
 1686 - Paris, Voyage de Siam, Guy Tachard (1651–1712)
-1686–1709 - Amsterdam, Moninckx Atlas [14], Jan Moninckx (1656–1714), Maria Moninckx (1673–1757)
+1686–1709 - Amsterdam, Moninckx Atlas , Jan Moninckx (1656–1714), Maria Moninckx (1673–1757)
 1687 - Leyde, Horti Academici Lugduno-Batavi Catalogus, Paul Hermann (vers 1646 – 1695)
 16?? - Londres, Codex Comptoniana, Henry Compton (1632–1713)
 16?? - Hollande, Codex Bentingiana, Hans Willem Bentinck (1649–1709)
@@ -810,7 +836,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -828,7 +854,9 @@
           <t>1701–1800</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1701 - Amsterdam, Horti medici amstelodamensis (vol. 2), Caspar Commelijn (1668–1731)
 1702–1709 - Londres, Gazophylacii naturae &amp; Artis Decas I-X, James Petiver (1663–1718)
@@ -838,7 +866,7 @@
 1705 - Metamorphosis insectorum Surinamensium, Maria Sibylla Merian (1647–1717)
 1706 - Horti medici amstelodamensis Planta Rariores et Exoticae, Caspar Commelijn (1668–1731)
 1707–1725 - Londres, Voyage to the Islands Madera, Barbadoes, Nieves, St. Christophers and Jamaica, Hans Sloane (1660–1753)
-1710 - Londres, Botanologia, the English herbal, or, History of plants [15], William Salmon (1644–1713)
+1710 - Londres, Botanologia, the English herbal, or, History of plants , William Salmon (1644–1713)
 1712 - Lemgo, Amoenitatum exoticarum, Engelbert Kaempfer (1651–1716)
 1714 - Paris, Icones Plantarum per Galliam, Hispaniam et Italiam Observata ad Vivum Exhibitarum, Jacques Barrelier (1606–1673)
 1716–1728 - Cambridge, Historia Plantarum Succulentarum, Richard Bradley (1688–1732)
@@ -851,7 +879,7 @@
 1724 Flora Capensis, Johann Philipp Breyne (1680–1764), Jacob Breyne
 1728–1736 - Londres, Historia Plantarum Rariorum, John Martyn (1699–1768), Jacob van Huysum (1687–1740), William Houstoun, G. Sartorys, R. Sartorius
 1728–1740 Plantarum minus cognitarum centuria, Johann Christian Buxbaum (1693–1730), Johann Georg Gmelin (1709–1755)
-1730 - Londres,  Catalogus Plantarum[16], Thomas Fairchild (1667?-1729), Philip Miller (1691–1771)
+1730 - Londres,  Catalogus Plantarum, Thomas Fairchild (1667?-1729), Philip Miller (1691–1771)
 1730–1747 The Natural History of Carolina, Florida, and the Bahama Islands, Mark Catesby (1683–1749)
 1731 - Londres, The Gardeners Dictionary, Philip Miller (1691–1771)
 1732 - Londres, Hortus Elthamensis, Johann Jacob Dillenius (1684–1747)
@@ -862,18 +890,18 @@
 1736–1748 - Amsterdam, Duidelyke Vertoning - Beschryvingen der Bloemdragende Gewassen, Johann Wilhelm Weinmann (1683–1741)
 1737 - Amsterdam, Thesaurus Zeylanicus Catalogus Plantarum Africanarum, Johannes Burman (1707–1779)
 1737 - Amsterdam, Hortus Cliffortianus, Linné (1707–1778), Georg Dionysius Ehret (1708–1770)
-1737–1745 - Ratisbon, Phytanthoza Iconographia[17], Johann Wilhelm Weinmann (1683–1741)
-1737–1739 - Londres, A curious herbal, containing five hundred cuts, Elizabeth Blackwell (1700–1758)[4]
+1737–1745 - Ratisbon, Phytanthoza Iconographia, Johann Wilhelm Weinmann (1683–1741)
+1737–1739 - Londres, A curious herbal, containing five hundred cuts, Elizabeth Blackwell (1700–1758)
 1738–1739 Rariorum Africanarum Plantarum, Johannes Burman (1707–1779)
 1739 - Saint-Pétersbourg, Stirpium rariorum in Imperio Rutheno, Johannes Amman (1707–1741), Philipp Georg Mattarnovy (1716–1742)
 1739 - Danzig, Prodromi fasciculi rariorum plantarum primus et secundus, Johann Philipp Breyne (1680–1764)
-1741–1755 - Amsterdam, Herbarium Amboinense[18], Georg Everhard Rumphius / Georg Eberhard Rumpf (1627–1702)[4]
+1741–1755 - Amsterdam, Herbarium Amboinense, Georg Everhard Rumphius / Georg Eberhard Rumpf (1627–1702)
 1742 - Oxford, Historia muscorum, Johann Jacob Dillenius (1684–1747)
 1747 - Stockholm, Flora Zeylanica, Linné (1707–1778)
 1749 - Göttingen, Opuscula sua Botanica, Albrecht von Haller (1708-1777)
 1750 - Historia Plantarum, originally written by Conrad Gessner de 1555 à 1565.
-1750–1773 - Plantae selectae, Georg Dionysius Ehret (1708–1770), Christoph Jakob Trew[19]
-1750–1773 - Nuremberg, Herbarium Blackwellianum emendatum, Elizabeth Blackwell (1700–1758)[4]
+1750–1773 - Plantae selectae, Georg Dionysius Ehret (1708–1770), Christoph Jakob Trew
+1750–1773 - Nuremberg, Herbarium Blackwellianum emendatum, Elizabeth Blackwell (1700–1758)
 1750–1786 - Nuremberg, Hortus Nitidissimus, Christoph Jacob Trew
 1753 - Stockholm, Species plantarum, Linné (1707–1778)
 1754 - Stockholm, Genera plantarum, Linné (1707–1778)
@@ -883,15 +911,15 @@
 1767 - Stockholm, Descriptiones Plantarum ex Capite Bonae Spei, Peter Jonas Bergius (1730–1790)
 1767 - Stockholm, Mantissa Plantarum, Linné (1707–1778)
 1767 - Londres, Hortus Europae Americanus, Mark Catesby (1683–1749)
-1767–1768 - Palerme, La Natura e Coltura de'Fiori fisicamente esposta in due trattati, Filippo Arena (1708–1789), P. M. Camareri[20],[21],[22]
+1767–1768 - Palerme, La Natura e Coltura de'Fiori fisicamente esposta in due trattati, Filippo Arena (1708–1789), P. M. Camareri
 1769–1770 - Londres, The British Herbal, John Edwards (1742–1815)
-1770–1776 - Vienne, Hortus Botanicus Vindobonensis, Nikolaus Joseph Jacquin[4]
-1773–1778 - Vienne, Floræ Austriacæ, Nikolaus Joseph Jacquin[4]
+1770–1776 - Vienne, Hortus Botanicus Vindobonensis, Nikolaus Joseph Jacquin
+1773–1778 - Vienne, Floræ Austriacæ, Nikolaus Joseph Jacquin
 1774–1783 - Herbier artificiel, Pierre Buchoz
 1775 - Paris, Histoire des plantes de la Guyane françoise, Jean Baptiste Christian Fusée-Aublet (1720–1778)
-1775 - Leyde, Afbeeldingen van zeldzaame gewassen, Nicolaas Meerburgh[4]
+1775 - Leyde, Afbeeldingen van zeldzaame gewassen, Nicolaas Meerburgh
 1776–1783 - Paris, Flora Parisiensis, Pierre Bulliard (1752–1793)
-1777 - Illustrations of the sexual system of Linnaeus, John Miller (1715–1790)[23]
+1777 - Illustrations of the sexual system of Linnaeus, John Miller (1715–1790)
 1777 - Londres, Flora Londinensis, William Curtis (1746–1799), James Sowerby, Sydenham Edwards, William Kilburn
 1779–1790 - Nuremberg, Icones plantarum medicinalium, Johann Zorn (1739–99)
 1780–1795 - Herbier de la France, Pierre Bulliard (1742–93)
@@ -903,12 +931,12 @@
 1786 - Nuremberg, Hortus nitidissimus, Christoph Jacob Trew (1695–1769)
 1786–1789 - Stockholm, Catalogue of the Museum Carlsonianum, Anders Erikson Sparrman (1748–1820)
 1787 - Londres, The Botanical Magazine, William Curtis (1746–1799)
-1787 - Paris, Cours de botanique, Pierre Philippe Alyon (1758–1816)[24]
+1787 - Paris, Cours de botanique, Pierre Philippe Alyon (1758–1816)
 1788 - Nova Genera et Species Plantarum seu Prodromus, Peter Olof Swartz (1760 - 1818)
 1788 - Londres, Flora Caroliniana, Thomas Walter (1740 - 1789)
 1788 - Tübingen, De Fructibus et Seminibus Plantarum, Joseph Gaertner.
 1788 - Paris, Recueil des plantes gravée par ordre du roi Louis XIV, Dionys Dodart (1634–1707)
-1788 - Paris, Cornus : specimen botanicum, Charles Louis L'Héritier de Brutelle (1746–1800), Pierre-Joseph Redouté[4]
+1788 - Paris, Cornus : specimen botanicum, Charles Louis L'Héritier de Brutelle (1746–1800), Pierre-Joseph Redouté
 1788 - Paris Monadelphiae classis dissertationes decem, Antonio José Cavanilles
 1788-1792 - Naples, Plantarum Rariorum Regni Neapolitani, Domenico Maria Leone Cirillo (1739 - 1799)
 1788–1793 - Stockholm, Travels in Europe, Africa and Asia, Carl Peter Thunberg (1743–1828)
@@ -918,26 +946,26 @@
 1789 - Munich, Baiersche Flora, Franz von Paula Schrank (1747 - 1835)
 1789-1791 - Londres, Plantarum Icones Hactenus Ineditae, James Edward Smith
 1789 - Londres, A Narrative of Four Journeys into the Country of the Hottentots and Caffraria, William Paterson (1755–1810)
-1789–1790 - Londres, Botanical Review, or The Beauties of Flora[25], Edward Donovan (1768–1837)
+1789–1790 - Londres, Botanical Review, or The Beauties of Flora, Edward Donovan (1768–1837)
 1790 - Londres, Travels into the Interior Parts of Africa, François Levaillant (1753–1824)
 1790 - Plantes grasses, Pierre-Joseph Redouté (1759–1840)
-1790–1792 De Fructibus et Seminibus Plantarum[26], Joseph Gaertner (1732–1791), Johann Georg Sturm (1742–1793)
+1790–1792 De Fructibus et Seminibus Plantarum, Joseph Gaertner (1732–1791), Johann Georg Sturm (1742–1793)
 1790–1795 - Medical Botany, William Woodville, James Sowerby
 1790–1813 - English Botany Sowerby's Botany, James Sowerby, James Edward Smith
 1793 - Haarlem, Icones Plantarum Rariorum
-1794 - Londres, Coloured Engravings of Heaths, Henry Cranke Andrews fl.(1794–1830)[24]
+1794 - Londres, Coloured Engravings of Heaths, Henry Cranke Andrews fl.(1794–1830)
 1794 - Uppsala, Prodromus Plantarum Capensium, Carl Peter Thunberg (1743–1828)
-1795 - Stuttgart, Hortus sempervirens exhibens icones plantarum selectiorum..., Johann Simon von Kerner (1755–1830) [27]
+1795 - Stuttgart, Hortus sempervirens exhibens icones plantarum selectiorum..., Johann Simon von Kerner (1755–1830) 
 1796 - Weimar, Der geöffnete Blumengarten, August Iohann Georg Carl Batsch
-1796 - Nuremberg, Deutschlands Flora in Abbildungen[28], Jacob Sturm (1771–1848), Johann Georg Sturm (1742–1793)
-1797 - A Description of the Genus Cinchona, Aylmer Bourke Lambert (1761–1842)[4]
+1796 - Nuremberg, Deutschlands Flora in Abbildungen, Jacob Sturm (1771–1848), Johann Georg Sturm (1742–1793)
+1797 - A Description of the Genus Cinchona, Aylmer Bourke Lambert (1761–1842)
 1797–1804 - Vienne, Plantarum Rariorum Horti Caesarei Schoenbrunnensis Descriptiones et Icones, Nikolaus Joseph von Jacquin (1727–1817)
 1797–1812 Botanist's Repository, Henry Cranke Andrews fl.(1794–1830)
 1798 - Paris, Histoire des champignons de la France, Pierre Bulliard (1742–93)
-1798 - Madrid, Flora Peruviana, et Chilensis, Hipólito Ruiz[4]
-1798–1799 - ParisFlora Atlantica :sive historia plantarum quae in Atlante, René Desfontaines (1750–1833), Pierre-Joseph Redouté (1759–1840)[4]
-1799–1807 - Temple of Flora, Robert John Thornton (1768–1837), Thomas Medland (1755–1833), Philip Reinagle (1749–1833)[29]
-1799–1807 - Illustrations of the New Sexual System of Carolus von Linnaeus and Temple of Flora, Robert John Thornton (1768–1837)[30], Thomas Medland (1755–1833), Philip Reinagle (1749–1833)[29]
+1798 - Madrid, Flora Peruviana, et Chilensis, Hipólito Ruiz
+1798–1799 - ParisFlora Atlantica :sive historia plantarum quae in Atlante, René Desfontaines (1750–1833), Pierre-Joseph Redouté (1759–1840)
+1799–1807 - Temple of Flora, Robert John Thornton (1768–1837), Thomas Medland (1755–1833), Philip Reinagle (1749–1833)
+1799–1807 - Illustrations of the New Sexual System of Carolus von Linnaeus and Temple of Flora, Robert John Thornton (1768–1837), Thomas Medland (1755–1833), Philip Reinagle (1749–1833)
 1799–1837 - Plantarum historia succulentarum, Augustin Pyrame de Candolle (1778–1841), Pierre-Joseph Redouté (1759–1840)
 1800 - Paris, Description des plantes nouvelles, Étienne Pierre Ventenat (1757–1808)
 1800–1822 - Vienne, Icones Plantarum Medico-Oeconomico-Technologicarum, Ferdinand Bernhard Vietz (1772–1815)</t>
@@ -950,7 +978,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_floril%C3%A8ges_et_codex_botaniques</t>
+          <t>Liste_de_florilèges_et_codex_botaniques</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -968,34 +996,36 @@
           <t>1801–1900</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1800–1934 - Amsterdam, Flora Batava[31], Jan Kops (1765–1849), Jan Christiaan Sepp (1739–1811)
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1800–1934 - Amsterdam, Flora Batava, Jan Kops (1765–1849), Jan Christiaan Sepp (1739–1811)
 1801 - Paris, Histoire des chênes de l'Amérique, André Michaux (1746–1802), Pierre-Joseph Redouté (1759–1840)
 1801–1809 - Vienne, Icones et descriptiones Graminum austriacorum, Nikolaus Thomas Host
 1802–1812 - Vienne, Descriptiones et icones plantarum rariorum Hungariae, Pál Kitaibel (1757–1817), Franz de Paula Adam von Waldstein (1759–1823), Karl Schutz, Johann Schutz
-1802–1815 - Paris, Les Liliacées, Redouté (1759–1840), de Candolle, François de Laroche, Alire Raffeneau-Delile, Louis-Jean Allais (1762–1833)[4]
-1802 - Astragalogia, nempe astragali, Pierre-Joseph Redouté (1759–1840)[32]
+1802–1815 - Paris, Les Liliacées, Redouté (1759–1840), de Candolle, François de Laroche, Alire Raffeneau-Delile, Louis-Jean Allais (1762–1833)
+1802 - Astragalogia, nempe astragali, Pierre-Joseph Redouté (1759–1840)
 1804 - Paris, Voyage à l’ouest des Monts Alléghanys, François André Michaux (1770–1855)
 1804–1812 - Pomona Britannica, George Brookshaw (1751–1823)
 1807 - Paris, Le voyage aux régions équinoxiales du Nouveau Continent, fait en 1799-1804, Alexander von Humboldt (1769–1859), Aimé Bonpland (1773–1858)
 1807–1820 - Uppsala, Flora Capensis, Carl Peter Thunberg (1743–1828)
 1808 - Paris, Fleurs et Fruits graveés, Pancrace Bessa (1772–1835)
 1808–1827 - Paris, Flore des Antilles, François Richard de Tussac (1751–1837)
-1809 - Vienne, Fragmenta botanica, Nikolaus Joseph Jacquin[4]
+1809 - Vienne, Fragmenta botanica, Nikolaus Joseph Jacquin
 1810 - Londres, Botanical Extracts Or Philosophy of Botany, Robert John Thornton (1768–1837)
 1810–1813 - Paris, Histoire des arbres forestiers de l'Amérique septentrionale, André Michaux (1746–1802), François André Michaux (1770–1855), Pierre-Joseph Redouté (1759–1840)
 1811 - Londres, Pomona Herefordiensis, Thomas Andrew Knight (1759–1838)
 1812 - Londres, The British Flora, Robert John Thornton (1768–1837)
-1812–1817 - Paris, Description des plantes rares cultivées à Malmaison et à Navarre Aimé Bonpland (1773–1858), Pierre-Joseph Redouté (1759–1840)[4]
+1812–1817 - Paris, Description des plantes rares cultivées à Malmaison et à Navarre Aimé Bonpland (1773–1858), Pierre-Joseph Redouté (1759–1840)
 1814–1827 - Paris, Herbier général de l'amateur, Jean-Claude-Michel Mordant de Launay (1750–1816), continué par Jean-Louis-Auguste Loiseleur-Deslongchamps (1774-1849)
 1815–1847 - Londres, Edwards's Botanical Register, Sydenham Edwards (1768–1819), Sarah Drake (1803–1857), John Bellenden Ker Gawler (vers 1764 – 1842), John Lindley (1799–1865)
 1817 - Londres, Groups of flowers, George Brookshaw (1751–1823)
 1817 - Nuremberg, Deutschlands Flora In Abbildungen, Joseph Sturm (1771–1848)
 1817–1818 - Philadelphie, Vegetable Materia Medica of the United States, William Paul Crillon Barton (1786–1856)
 1817–1819 - Philadelphie, The North American Sylva, François André Michaux (1770–1855)
-1817–1820 - Boston, American Medical Botany[33], Jacob Bigelow (1787–1879)[7]
-1817–1833 - Londres, The Botanical Cabinet[34] Conrad Loddiges &amp; Sons
+1817–1820 - Boston, American Medical Botany, Jacob Bigelow (1787–1879)
+1817–1833 - Londres, The Botanical Cabinet Conrad Loddiges &amp; Sons
 1818 Muscologia, William Jackson Hooker (1786–1865), Thomas Taylor
 1818–1820 - Londres, Studies of Flowers from Nature Miss Smith
 1818–1820 - Musci exotici, William Jackson Hooker (1786–1865)
@@ -1005,42 +1035,42 @@
 1820 - Paris, Études de fleurs et de fruits peints d'après nature, Henriette Vincent
 1820–1846 - Paris, Icones selectae plantarum, Augustin Pyrame de Candolle (1778–1841), Benjamin Delessert (1773–1847), Pierre Jean François Turpin (1775–1840), Jean-Christophe Heyland (1792–1866)
 1821–1823 - Philadelphie, A Flora of North America, William Paul Crillon Barton (1786–1856)
-1821–1824 - Paris, Phytographie médicale[35], Joseph Roques (1772–1850), Édouard Hocquart (1787–1870)
-1821–1826 - Londres, Collectanea botanica or Figures and botanical illustrations of rare and curious exotic plants[36], John Lindley (1799–1865)
-1821–1829 - Paris, Flore médicale des Antilles][37], Michel Étienne Descourtilz (1775–1835), Jean-Theodore Descourtilz
+1821–1824 - Paris, Phytographie médicale, Joseph Roques (1772–1850), Édouard Hocquart (1787–1870)
+1821–1826 - Londres, Collectanea botanica or Figures and botanical illustrations of rare and curious exotic plants, John Lindley (1799–1865)
+1821–1829 - Paris, Flore médicale des Antilles], Michel Étienne Descourtilz (1775–1835), Jean-Theodore Descourtilz
 1823–1832 - Nova Genera et Species Plantarum Brasiliensium, Carl Friedrich Philipp von Martius (1794–1868)
-1823–1850 - Leipzig, Historia naturalis palmarum, Carl Friedrich Philipp von Martius (1794–1868)[4]
+1823–1850 - Leipzig, Historia naturalis palmarum, Carl Friedrich Philipp von Martius (1794–1868)
 1824–1839 - Paris, Prodromus systematis naturalis regni vegetabilis, Augustin Pyrame de Candolle (1778–1841), Alphonse de Candolle (1806–1893)
-1825 - Paris, Traité des arbrisseaux et des arbustes cultivés en France et en pleine terre[38], Jean Henri Jaume Saint-Hilaire (1772–1845)
+1825 - Paris, Traité des arbrisseaux et des arbustes cultivés en France et en pleine terre, Jean Henri Jaume Saint-Hilaire (1772–1845)
 1825 - Philadelphie Vegetable Materia Medica of the United States, William Paul Crillon Barton (1786–1856)
 1826 - West Chester, Florula Cestrica, William Darlington (1782–1863)
 1827 - Icones selectae Plantarum Cryptogamicarum Brasiliensium, Carl Friedrich Philipp von Martius (1794–1868)
 1827–1833 - Paris, Choix des plus belles fleurs, Pierre-Joseph Redouté (1759–1840)
-1828 - Japon, Illustrated Manual of Medicinal Plants[39], Iwasaki Tsunemasa (1786–1842)
+1828 - Japon, Illustrated Manual of Medicinal Plants, Iwasaki Tsunemasa (1786–1842)
 1828 - Londres, The Pomological Magazine, John Lindley (1799–1865)
 1828–1832 - Paris, Flore medicale, François-Pierre Chaumeton (1775–1819)
 1829–1840 - Flora boreali-americana, William Jackson Hooker (1785–1865), David Douglas (1799–1834), John Richardson (1787–1865)
 1831 - Londres, Illustrations and Descriptions of Camellieæ, William Chandler Booth (1804–1874), Alfred Chandler (1804–1896), S.Watts, Weddell
-1831–1834 - Londres, A selection of hexandrian plants, belonging to the natural orders Amaryllidae and Liliacae, Priscilla Susan Falkner Bury (1793–1869)[4]
+1831–1834 - Londres, A selection of hexandrian plants, belonging to the natural orders Amaryllidae and Liliacae, Priscilla Susan Falkner Bury (1793–1869)
 1832 - Londres, A Description of the Genus Pinus, Aylmer Bourke Lambert (1761–1842)
 Oxford, British Phaenogamous Botany, William Baxter, J.H. Parker, Whittaker, Treacher and Company
 1833 - Paris, Rousselon, Flore pittoresque et médicale des Antilles ou histoire naturelle des plantes usuelles des colonies françaises, anglaises, espagnoles et portugaises (tomes I à VII).  Descourtilz, Michel Etienne et Descourtilz, Jean Théodore.
-1833–1838 - Bruxelles, l'Horticulteur belge[40], Louis Van Houtte, Charles François Antoine Morren, Auguste Drapiez, Michael Josef Francois Scheidweiler
+1833–1838 - Bruxelles, l'Horticulteur belge, Louis Van Houtte, Charles François Antoine Morren, Auguste Drapiez, Michael Josef Francois Scheidweiler
 1835 - Paris, Collection de 24 bouquets de fleurs, Henriette Vincent
-1835–1845 - Leipzig, Nova genera ac species plantarum, quas in regno Chilensi Peruviano et in terra Amazonica[41], Eduard Friedrich Poeppig (1798–1868), István László Endlicher (1804–1849)
+1835–1845 - Leipzig, Nova genera ac species plantarum, quas in regno Chilensi Peruviano et in terra Amazonica, Eduard Friedrich Poeppig (1798–1868), István László Endlicher (1804–1849)
 1835–1848 - Leyde, Rumphia, Carl Ludwig Blume (1796–1862)
 1836 - Paris, Turin, Histoire naturelle, agricole et économique du maïs, Matthieu Bonafous (1793–1852)
 1836 - Londres, The romance of nature or, the flower-seasons illustrated, Louisa Anne Twamley Meredith (1812–1895)
 1836–1850 - Paris, Histoire naturelle des îles Canaries, Philip Barker Webb (1793–1854), Sabin Berthelot (1794–1880), Jean-Christophe Heyland (1792–1866)
 1836–1876 - Icones Plantarum, William Jackson Hooker (1785–1865), Walter Hood Fitch (1817–1892)
-1837–1838 - Londres, Sertum Orchidaceum, John Lindley (1799–1865), Sarah Drake (1803–1857), M. Gauci[42]
+1837–1838 - Londres, Sertum Orchidaceum, John Lindley (1799–1865), Sarah Drake (1803–1857), M. Gauci
 1837–1841 - Amsterdam, The Orchidaceae of Mexico and Guatemala, James Bateman (1811–1897), Walter Hood Fitch (1817–1892), Sarah Drake (1803–1857), Mrs Withers, M. Gauci
-1837–1859 - Turin, Flora Sardoa, Giuseppe Giacinto Moris (1796–1869) [43]
-1839 - Paris, Iconographie du genre Camellia, Lorenzo Berlèse (1784–1863)[44]
+1837–1859 - Turin, Flora Sardoa, Giuseppe Giacinto Moris (1796–1869) 
+1839 - Paris, Iconographie du genre Camellia, Lorenzo Berlèse (1784–1863)
 1840 - Die Natzlichen Und Schadlichen Schwamme, Harald Othmar Lenz (1799–1870)
 1840 - Saint-Pétersbourg, Illustrationes algarum in itinere c. orbem jussu Imperatoris Nicolai I, Alexander Philipov Postels (1801–1871), Franz Josef Ruprecht (1814–1870)
-1840–1906 - Munich, Flora Brasiliensis, Carl Friedrich Philipp von Martius (1794–1868) et al[45].
-1841–1847 - Iconographie descriptive des cactees, Charles Antoine Lemaire, Dumenil, Édouard Maubert[4]
+1840–1906 - Munich, Flora Brasiliensis, Carl Friedrich Philipp von Martius (1794–1868) et al.
+1841–1847 - Iconographie descriptive des cactees, Charles Antoine Lemaire, Dumenil, Édouard Maubert
 1843 - A Flora of the State of New York, John Torrey
 1843 - Londres, Paxton's magazine of botany, Joseph Paxton (1803–1865)
 1843–1846 - Paris, Flore d'Amérique dessinée d'après nature sur les lieux, Étienne Denisse (fl. 1814–1845)
@@ -1051,30 +1081,30 @@
 Part IV Flora of Tasmania (1853-59) (2 vols)
 1844–1873 Prodromus systematis naturalis regni vegetabilis, Alphonse Pyrame de Candolle (1805–1893)
 1845–1883 - Gand, Flore des serres, Louis van Houtte (1810–1876), Charles Antoine Lemaire (1800–1871), Michael Josef Francois Scheidweiler (1799–1861)
-1846 - Madras, Spicilegium Neilgherrense[46], Robert Wight (1796–1872)
+1846 - Madras, Spicilegium Neilgherrense, Robert Wight (1796–1872)
 1848–1860 - Gand, Nouvelle iconographie des Camellias, Ambroise Verschaffelt, Bernard Léon
 1849 - New York, A Forget-Me-Not. Flowers from nature, Clarissa Munger Badger
 1849 - Paris, Histoire naturelle des quinquinas, ou monographie du genre Cinchona, Hugh Algernon Weddell (1819–1877)
 1849–1851The Rhododendrons of Sikkim-Himalaya, Joseph Dalton Hooker (1817–1911), Walter Hood Fitch (1817–1892)
-1849–1857 - Londres, Illustrations of South American Plants[47], John Miers (1789–1879)
+1849–1857 - Londres, Illustrations of South American Plants, John Miers (1789–1879)
 1850–1852 - Bruxelles, Album de pomologie, Alexandre Joseph Désiré Bivort (1809–1872)
 1850–1852 - Londres, Paxton’s Flower Garden, John Lindley (1799–1865), Joseph Paxton (1803–1865)
 1851 - A Century of Orchidaceous Plants, William Jackson Hooker(1785–1865), Walter Hood Fitch (1817–1892)
 1851 - Prague, Beschreibung und Cultur Orchideen, F Josst
 1851–1852 - Paris, Jardin fleuriste, Charles Antoine Lemaire (1800–1871), Jean-Christophe Heyland (1792–1866)
-1852–1853 - Londres, Flora Homoeopathica[48], Edward Hamilton (1815–1903)
-1853 - Paris, Gramineae Chilenses, Émile Desvaux[4]
+1852–1853 - Londres, Flora Homoeopathica, Edward Hamilton (1815–1903)
+1853 - Paris, Gramineae Chilenses, Émile Desvaux
 1853 - Vienne, Pflanzen Blumen und Blätter, Alois Auer (fl. 1840s-1850s)
 1853–1860 - Annales de pomologie belge et étrangère, Alexandre Joseph Désiré Bivort (1809–1872), Séraph Bavay
-1853–1860 - Flora of New Zealand, Flora of Tasmania, Joseph Dalton Hooker (1817–1911), Walter Hood Fitch (1817–1892)[49]
+1853–1860 - Flora of New Zealand, Flora of Tasmania, Joseph Dalton Hooker (1817–1911), Walter Hood Fitch (1817–1892)
 1854 - Amsterdam, Handboek tot de Kennis, Voortkweeking van Cactus-soorten, J. J. Krook
 1854–1860 - Pescatorea, Jean Jules Linden (1817–1898), François De Tollenaere, Édouard Maubert
 1854–1896 - Belgique, L'Illustration horticole, journal spécial des serres et des jardins, Charles Antoine Lemaire (1800–1871), Jean Jules Lindenn (1817–1898) Verschaffelt
-1855 - Illustrations of Himalayan Plants, Joseph Dalton Hooker (1817–1911), Walter Hood Fitch (1817–1892)[4]
-1855–1857 - Paris, Chloris andina : essai d'une flore de la région alpine des cordillères de l'Amérique du Sud, Hugh Algernon Weddell (1819–1877)[4]
+1855 - Illustrations of Himalayan Plants, Joseph Dalton Hooker (1817–1911), Walter Hood Fitch (1817–1892)
+1855–1857 - Paris, Chloris andina : essai d'une flore de la région alpine des cordillères de l'Amérique du Sud, Hugh Algernon Weddell (1819–1877)
 1855–1856 - Physiotypia Plantarum Austriacarum der Naturselbstdruck, Constantin von Ettingshausen (1826–1897)
 1857 - The Ferns of Great Britain and Ireland, Thomas Moore, Henry Bradbury (1831–1860)
-1858 - Leyde, Florae Javae et insularum adjacentium nova series, Carl Ludwig Blume (1796–1862)[42]
+1858 - Leyde, Florae Javae et insularum adjacentium nova series, Carl Ludwig Blume (1796–1862)
 1858–1900 - Leipzig, Xenia Orchidacea. Beiträge zur Kenntniss der Orchideen, Heinrich Gustav Reichenbach (1823–1889), Friedrich Wilhelm Ludwig Kraenzlin (1847–1934)
 1859 - Dublin, Thesaurus Capensis or Illustrations of the South African Flora, William Henry Harvey (1811–1866)
 1859 - Nice, Les champignons de la province De Nice, Jean-Baptiste Barla (1817–1896)
@@ -1082,13 +1112,13 @@
 1859 - Nature-Printed British Ferns, Henry Bradbury (1831–1860)
 1859–1860 - The Nature-printed British Sea-weeds, Henry Bradbury (1831–1860)
 1859–1860 - Hortus Lindenianus, Jean Jules Linden (1817–1898)
-1860 - Bruxelles, Pescatorea : iconographie des orchidées[50], Jean Jules Linden (1817–1898)
+1860 - Bruxelles, Pescatorea : iconographie des orchidées, Jean Jules Linden (1817–1898)
 1860 - Londres, Outlines Of British Fungology, Miles Joseph Berkeley (1803–1889)
 1862-1864 - Madrid, Album de la flora médico-farmacéutica é industrial, indígena y exótica, Vicente Martin de Argenta (1829-1896)
 1862–1865-1891 - Londres, Select Orchidaceous Plants, Robert Warner (1814–1896), Benjamin Samuel Williams (1824–1890), Walter Hood Fitch (1817–1892), James Andrews
 1863 - Vienne, Beiträge zur Morphologie und Biologie der Familie der Orchideen, JG Beer
 1863–1884 - Londres, Pinetum Britannicum, Edward James Ravenscroft (1816–1890)
-1864–1874 - A Monograph of Odontoglossum, James Bateman, Walter Hood Fitch (1817–1892)[4]
+1864–1874 - A Monograph of Odontoglossum, James Bateman, Walter Hood Fitch (1817–1892)
 1865 - Handbook of the British Flora, George Bentham (1800–1884), William Jackson Hooker (1786–1865), Walter Hood Fitch (1817–1892)
 1866 - Paris, Icones Euphorbiarum ou figures de cent vingt-deux espèces du genre Euphorbia, Pierre Edmond Boissier (1810–1885), Jean-Christophe Heyland (né Kumpfler) (1792–1866)
 1867 - Londres, A Second Century of Orchidaceous Plants, James Bateman (1811–1897), Walter Hood Fitch (1817–1892)
@@ -1098,24 +1128,24 @@
 1871 - Londres, Handbook of British Fungi, Mordecai Cubitt Cooke (1825–1914)
 1871–1905 - Leyde, Musée botanique de Leyde, Willem Frederik Reinier Suringar (coordinateur), A. J. Kouwels, A. J. Wendel
 1874 - Londres, A monograph of Odontoglossum, James Bateman (1811–1897), Walter Hood Fitch (1817–1892)
-1875–1894 - Sydney, Australian Orchids, Robert D. FitzGerald (1830–1892), Charles Potter, A. J.Stopps[42]
+1875–1894 - Sydney, Australian Orchids, Robert D. FitzGerald (1830–1892), Charles Potter, A. J.Stopps
 1876–1892 - Paris, Dictionnaire de botanique, Henri Ernest Baillon (1827–1895), Auguste Faguet (1841–1886)
-1877–1880 - Monograph of the Genus Lilium, Henry John Elwes (1846–1922), Walter Hood Fitch (1817–1892)[4]
-1877–1883 - Manille, Flora de Filipinas, Francisco Manuel Blanco (1778–1845), Lorenzo Guerrero, Regino Garcia y Basa, Fabian Domingo, C. Arguelles, J. Garcia, Rosendo Garcia, Felix Martinez[51]
-1879–1888 - Londres, Biologia Centrali-Americana[52], Frederick DuCane Godman (1834–1919), Osbert Salvin (1835–1898), William Botting Hemsley (1843–1924)
+1877–1880 - Monograph of the Genus Lilium, Henry John Elwes (1846–1922), Walter Hood Fitch (1817–1892)
+1877–1883 - Manille, Flora de Filipinas, Francisco Manuel Blanco (1778–1845), Lorenzo Guerrero, Regino Garcia y Basa, Fabian Domingo, C. Arguelles, J. Garcia, Rosendo Garcia, Felix Martinez
+1879–1888 - Londres, Biologia Centrali-Americana, Frederick DuCane Godman (1834–1919), Osbert Salvin (1835–1898), William Botting Hemsley (1843–1924)
 1880 - Londres, Illustrations of the British flora, Walter Hood Fitch (1817–1892), Worthington George Smith (1835–1917)
-1880 - Paris, Les Orchidées, histoire iconographique, Paul-Émile de Puydt[42]
-1880 - Bruxelles, Fleurs, fruits et feuillages choisis de l'ille de Java, Berthe Hoola van Nooten[4]
-1881–1892 - L'Orchidophile, journal des amateurs d'orchidées, A. Godefroy-Lebeuf, Guillaume Severeyns, F. Stroobant, Jeanne Koch[53].
+1880 - Paris, Les Orchidées, histoire iconographique, Paul-Émile de Puydt
+1880 - Bruxelles, Fleurs, fruits et feuillages choisis de l'ille de Java, Berthe Hoola van Nooten
+1881–1892 - L'Orchidophile, journal des amateurs d'orchidées, A. Godefroy-Lebeuf, Guillaume Severeyns, F. Stroobant, Jeanne Koch.
 1882–1883 - Berlin, Deutsche Pomologie, Wilhelm Lauche
-1882–1897 - Londres, The Orchid Album[54], Robert Warner, Thomas Moore, John Nugent Fitch (1840–1927), Benjamin Samuel Williams (1824–1890)
+1882–1897 - Londres, The Orchid Album, Robert Warner, Thomas Moore, John Nugent Fitch (1840–1927), Benjamin Samuel Williams (1824–1890)
 1883-1914 - Gera, Köhler's Medizinal-Pflanzen, Hermann Adolph Köhler (1834-79), Walther Otto Müller (1833-1887), C.F. Schmidt, K. Gunther
-1885 - Gera, Flora von Deutschland, Österreich und der Schweiz[55], Otto Wilhelm Thomé (1840–1925)
+1885 - Gera, Flora von Deutschland, Österreich und der Schweiz, Otto Wilhelm Thomé (1840–1925)
 1885 - Londres, Orchids the Royal Family of Plants, HS Miner
 1885–1894 - Bruxelles, Iconographie des Orchidées, Jean Jules Linden (1817–1898), Lucien Linden, Pieter De Pannemaeker, Em. Rodigas, R. A. Rolfe
 1885–1906 - Ghent, Lindenia : Iconographie des Orchidées, Jean Jules Linden (1817–1898), Lucien Linden
-1887–1894 - Londres, A Manual of Orchidaceous Plants, Harry James Veitch (1840–1924)[42]
-1888 - Argenteuil, Les Cypripediées, Alexandre Godefroy-Lebeuf &amp; Brown[56]
+1887–1894 - Londres, A Manual of Orchidaceous Plants, Harry James Veitch (1840–1924)
+1888 - Argenteuil, Les Cypripediées, Alexandre Godefroy-Lebeuf &amp; Brown
 1888–1894 - Londres, Reichenbachia: Orchids Illustrated and Described, Henry Frederick Conrad Sander (1847–1920), Henry George Moon (1857–1905), Walter Hood Fitch (1817–1892)
 1890 - Stuttgart, Illustriertes Handbuch der Kakteenkunde, Anton Daul
 1891 - Washington, Plates 1849-1859 to Accompany a Report on the Forest Trees of North America, Asa Gray (1810–1888)
@@ -1128,10 +1158,10 @@
 1895 - Berlin Handbuch der Tafeltraubenkultur, Rudolf Goethe (1843–1911), Wilhelm Lauche
 1895 - Berlin, Die pflanzenwelt Ost-Afrikas, Adolf Engler (1844–1930)
 1896 - Londres, The genus Masdevallia, Florence H Woolward (1854–1936), Friedrich Carl Lehmann
-1896–1907 - Bruxelles, Dictionnaire iconographique des Orchidées[57], Alfred Cogniaux (1841–1916), Alphonse Goossens
+1896–1907 - Bruxelles, Dictionnaire iconographique des Orchidées, Alfred Cogniaux (1841–1916), Alphonse Goossens
 1897–1898 - Washington, Student's Hand-Book Of Mushrooms Of America Edible And Poisonous, Thomas Taylor (1820–1910)
-1898 - Leipzig, Botanisches Bilderbuch für Jung und Alt[58], Franz Bley
-1898–1912 - Durban, Natal Plants[59], John Medley Wood (1827–1914), Maurice Smethurst Evans (1854–1920), Frieda Lauth (1879–1949), Walter Jacques Haygarth (1862–1950)</t>
+1898 - Leipzig, Botanisches Bilderbuch für Jung und Alt, Franz Bley
+1898–1912 - Durban, Natal Plants, John Medley Wood (1827–1914), Maurice Smethurst Evans (1854–1920), Frieda Lauth (1879–1949), Walter Jacques Haygarth (1862–1950)</t>
         </is>
       </c>
     </row>
